--- a/evaluation/results/cnn_anogan/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/cnn_anogan/split_1/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.5152986435494957</v>
+        <v>0.4719451808834463</v>
       </c>
       <c r="I2">
         <v>534</v>
